--- a/biology/Biologie cellulaire et moléculaire/SGK1/SGK1.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/SGK1/SGK1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">SGK1 pour Serum and Glucocorticoid-regulated Kinase 1, est une protéine cytoplasmique possédant une fonction kinase de phosphorylation de protéines cibles. Son gène est le SGK1 situé sur le chromosome 6 humain.
 </t>
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le domaine catalytique de SGK1 est à plus de 50 % homologue avec celui de la kinase PKB.
 </t>
@@ -542,7 +556,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme son nom l'indique le gène SGK1 est stimulé par les corticoïdes (glucocorticoïdes et minéralocorticoïdes), et certaines protéines sériques comme l'insulin-like growth factor. SGK1 est gène stimulé rapidement (early stimulated gene), c'est-à-dire en quelques minutes, par l'aldostérone ou le cortisol. SGK1 agit principalement par ses fonctions de phosphorylation de protéines cibles.
 </t>
@@ -573,7 +589,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rôle le plus connu de SGK1 est la phosphorylation de NEDD4, un partenaire inhibiteur du canal épithélial à sodium ENaC. La phosphorylation de NEDD4 entraîne sa séparation de ENaC et conduit au maintien du canal à la membrane apicale des cellules rénales ou coliques, aboutissant physiologiquement à la réabsorption de sodium du milieu extérieur vers le milieu intérieur.
 SGK1 est une protéine importante car régulée (avec ENaC) et régulatrice de l'homéostasie hydro-sodée des organismes.
